--- a/artfynd/A 16688-2023.xlsx
+++ b/artfynd/A 16688-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AY24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3051,6 +3051,232 @@
       </c>
       <c r="AY22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>112026957</v>
+      </c>
+      <c r="B23" t="n">
+        <v>85313</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>3739</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Persiljespindling</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cortinarius sulfurinus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Quél.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>485421.0690379958</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6996666.302800749</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>112026905</v>
+      </c>
+      <c r="B24" t="n">
+        <v>90651</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1968</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Grantaggsvamp</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Bankera violascens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Bye kalkbarrskogs naturreservat (Bye kalkbarrskogs naturreservat), Jmt</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>485427.0354010577</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6996682.125945764</v>
+      </c>
+      <c r="S24" t="n">
+        <v>25</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Marieby</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-11</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 16688-2023.xlsx
+++ b/artfynd/A 16688-2023.xlsx
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485421.0690379958</v>
+        <v>485421</v>
       </c>
       <c r="R23" t="n">
-        <v>6996666.302800749</v>
+        <v>6996666</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3127,19 +3127,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3207,10 +3197,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485427.0354010577</v>
+        <v>485427</v>
       </c>
       <c r="R24" t="n">
-        <v>6996682.125945764</v>
+        <v>6996682</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3240,19 +3230,9 @@
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-11</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">

--- a/artfynd/A 16688-2023.xlsx
+++ b/artfynd/A 16688-2023.xlsx
@@ -3056,7 +3056,7 @@
         <v>112026957</v>
       </c>
       <c r="B23" t="n">
-        <v>85313</v>
+        <v>85434</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         <v>112026905</v>
       </c>
       <c r="B24" t="n">
-        <v>90651</v>
+        <v>90785</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>

--- a/artfynd/A 16688-2023.xlsx
+++ b/artfynd/A 16688-2023.xlsx
@@ -3053,10 +3053,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112026957</v>
+        <v>112026905</v>
       </c>
       <c r="B23" t="n">
-        <v>85434</v>
+        <v>90799</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3069,21 +3069,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3739</v>
+        <v>1968</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485421</v>
+        <v>485427</v>
       </c>
       <c r="R23" t="n">
-        <v>6996666</v>
+        <v>6996682</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112026905</v>
+        <v>112026957</v>
       </c>
       <c r="B24" t="n">
-        <v>90785</v>
+        <v>85448</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3172,21 +3172,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1968</v>
+        <v>3739</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3197,10 +3197,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485427</v>
+        <v>485421</v>
       </c>
       <c r="R24" t="n">
-        <v>6996682</v>
+        <v>6996666</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>

--- a/artfynd/A 16688-2023.xlsx
+++ b/artfynd/A 16688-2023.xlsx
@@ -3053,10 +3053,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>112026905</v>
+        <v>112026957</v>
       </c>
       <c r="B23" t="n">
-        <v>90799</v>
+        <v>85448</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3069,21 +3069,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1968</v>
+        <v>3739</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grantaggsvamp</t>
+          <t>Persiljespindling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bankera violascens</t>
+          <t>Cortinarius sulfurinus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
+          <t>Quél.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3094,10 +3094,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>485427</v>
+        <v>485421</v>
       </c>
       <c r="R23" t="n">
-        <v>6996682</v>
+        <v>6996666</v>
       </c>
       <c r="S23" t="n">
         <v>25</v>
@@ -3156,10 +3156,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112026957</v>
+        <v>112026905</v>
       </c>
       <c r="B24" t="n">
-        <v>85448</v>
+        <v>90799</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3172,21 +3172,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3739</v>
+        <v>1968</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Persiljespindling</t>
+          <t>Grantaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cortinarius sulfurinus</t>
+          <t>Bankera violascens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Quél.</t>
+          <t>(Alb. &amp; Schwein. : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3197,10 +3197,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>485421</v>
+        <v>485427</v>
       </c>
       <c r="R24" t="n">
-        <v>6996666</v>
+        <v>6996682</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
